--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_16ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel05/field_16ha_100ha_6%_12m_0_LM/Planilha_Unificada.xlsx
@@ -3402,28 +3402,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>304.5672019516578</v>
+        <v>377.6554647791554</v>
       </c>
       <c r="AB2" t="n">
-        <v>416.7222822669049</v>
+        <v>516.724867894074</v>
       </c>
       <c r="AC2" t="n">
-        <v>376.9508925207473</v>
+        <v>467.4093717301699</v>
       </c>
       <c r="AD2" t="n">
-        <v>304567.2019516578</v>
+        <v>377655.4647791553</v>
       </c>
       <c r="AE2" t="n">
-        <v>416722.2822669049</v>
+        <v>516724.8678940741</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.410574035680953e-06</v>
+        <v>2.609931274645887e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.77473958333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>376950.8925207473</v>
+        <v>467409.3717301699</v>
       </c>
     </row>
     <row r="3">
@@ -3508,28 +3508,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>227.6149554165597</v>
+        <v>276.4826987258468</v>
       </c>
       <c r="AB3" t="n">
-        <v>311.4328236639199</v>
+        <v>378.2958259525122</v>
       </c>
       <c r="AC3" t="n">
-        <v>281.7101120722409</v>
+        <v>342.19180326513</v>
       </c>
       <c r="AD3" t="n">
-        <v>227614.9554165597</v>
+        <v>276482.6987258468</v>
       </c>
       <c r="AE3" t="n">
-        <v>311432.8236639199</v>
+        <v>378295.8259525122</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.777642596792924e-06</v>
+        <v>3.289104216548873e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.548177083333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>281710.1120722409</v>
+        <v>342191.80326513</v>
       </c>
     </row>
     <row r="4">
@@ -3614,28 +3614,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>201.2364483995469</v>
+        <v>262.043769758797</v>
       </c>
       <c r="AB4" t="n">
-        <v>275.340586625664</v>
+        <v>358.5398463392058</v>
       </c>
       <c r="AC4" t="n">
-        <v>249.0624674811318</v>
+        <v>324.3213066184261</v>
       </c>
       <c r="AD4" t="n">
-        <v>201236.4483995469</v>
+        <v>262043.769758797</v>
       </c>
       <c r="AE4" t="n">
-        <v>275340.586625664</v>
+        <v>358539.8463392059</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.917178134013283e-06</v>
+        <v>3.54728149282358e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.9296875</v>
       </c>
       <c r="AH4" t="n">
-        <v>249062.4674811318</v>
+        <v>324321.3066184261</v>
       </c>
     </row>
     <row r="5">
@@ -3720,28 +3720,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>194.3292284319211</v>
+        <v>243.1116308866332</v>
       </c>
       <c r="AB5" t="n">
-        <v>265.8898235409246</v>
+        <v>332.6360587071349</v>
       </c>
       <c r="AC5" t="n">
-        <v>240.5136719609676</v>
+        <v>300.8897401218655</v>
       </c>
       <c r="AD5" t="n">
-        <v>194329.2284319211</v>
+        <v>243111.6308866332</v>
       </c>
       <c r="AE5" t="n">
-        <v>265889.8235409246</v>
+        <v>332636.0587071349</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.986222315863036e-06</v>
+        <v>3.675031306008689e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.649739583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>240513.6719609676</v>
+        <v>300889.7401218655</v>
       </c>
     </row>
     <row r="6">
@@ -3826,28 +3826,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>189.3779344790765</v>
+        <v>237.9897447331963</v>
       </c>
       <c r="AB6" t="n">
-        <v>259.1152447189732</v>
+        <v>325.6280681103365</v>
       </c>
       <c r="AC6" t="n">
-        <v>234.3856494336</v>
+        <v>294.5505823118468</v>
       </c>
       <c r="AD6" t="n">
-        <v>189377.9344790765</v>
+        <v>237989.7447331963</v>
       </c>
       <c r="AE6" t="n">
-        <v>259115.2447189732</v>
+        <v>325628.0681103365</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.035589606130861e-06</v>
+        <v>3.766373718073094e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.467447916666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>234385.6494336</v>
+        <v>294550.5823118468</v>
       </c>
     </row>
     <row r="7">
@@ -3932,28 +3932,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>185.5148450540551</v>
+        <v>234.1266553081749</v>
       </c>
       <c r="AB7" t="n">
-        <v>253.8295953401843</v>
+        <v>320.3424187315478</v>
       </c>
       <c r="AC7" t="n">
-        <v>229.6044550130656</v>
+        <v>289.7693878913124</v>
       </c>
       <c r="AD7" t="n">
-        <v>185514.8450540551</v>
+        <v>234126.655308175</v>
       </c>
       <c r="AE7" t="n">
-        <v>253829.5953401843</v>
+        <v>320342.4187315478</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.067800887724052e-06</v>
+        <v>3.825973022398803e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.350260416666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>229604.4550130656</v>
+        <v>289769.3878913124</v>
       </c>
     </row>
     <row r="8">
@@ -4038,28 +4038,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>182.3659179721953</v>
+        <v>230.9777282263152</v>
       </c>
       <c r="AB8" t="n">
-        <v>249.5210943859277</v>
+        <v>316.033917777291</v>
       </c>
       <c r="AC8" t="n">
-        <v>225.7071513428627</v>
+        <v>285.8720842211095</v>
       </c>
       <c r="AD8" t="n">
-        <v>182365.9179721953</v>
+        <v>230977.7282263152</v>
       </c>
       <c r="AE8" t="n">
-        <v>249521.0943859277</v>
+        <v>316033.917777291</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.089718564112462e-06</v>
+        <v>3.866526462081297e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.272135416666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>225707.1513428627</v>
+        <v>285872.0842211095</v>
       </c>
     </row>
     <row r="9">
@@ -4144,28 +4144,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>179.8913673527575</v>
+        <v>216.4782587023425</v>
       </c>
       <c r="AB9" t="n">
-        <v>246.1353050589459</v>
+        <v>296.1951039031521</v>
       </c>
       <c r="AC9" t="n">
-        <v>222.6444969972619</v>
+        <v>267.9266588991618</v>
       </c>
       <c r="AD9" t="n">
-        <v>179891.3673527575</v>
+        <v>216478.2587023425</v>
       </c>
       <c r="AE9" t="n">
-        <v>246135.3050589459</v>
+        <v>296195.103903152</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.10236966166573e-06</v>
+        <v>3.889934304794728e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.2265625</v>
       </c>
       <c r="AH9" t="n">
-        <v>222644.4969972619</v>
+        <v>267926.6588991618</v>
       </c>
     </row>
     <row r="10">
@@ -4250,28 +4250,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>177.2309694629467</v>
+        <v>213.8178608125318</v>
       </c>
       <c r="AB10" t="n">
-        <v>242.4952312976372</v>
+        <v>292.5550301418433</v>
       </c>
       <c r="AC10" t="n">
-        <v>219.3518267668557</v>
+        <v>264.6339886687556</v>
       </c>
       <c r="AD10" t="n">
-        <v>177230.9694629467</v>
+        <v>213817.8608125318</v>
       </c>
       <c r="AE10" t="n">
-        <v>242495.2312976372</v>
+        <v>292555.0301418433</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.110329116030425e-06</v>
+        <v>3.904661379269416e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.200520833333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>219351.8267668557</v>
+        <v>264633.9886687556</v>
       </c>
     </row>
     <row r="11">
@@ -4356,28 +4356,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>175.3277676839517</v>
+        <v>211.9146590335367</v>
       </c>
       <c r="AB11" t="n">
-        <v>239.8911866602808</v>
+        <v>289.9509855044869</v>
       </c>
       <c r="AC11" t="n">
-        <v>216.9963084948882</v>
+        <v>262.2784703967881</v>
       </c>
       <c r="AD11" t="n">
-        <v>175327.7676839516</v>
+        <v>211914.6590335367</v>
       </c>
       <c r="AE11" t="n">
-        <v>239891.1866602808</v>
+        <v>289950.9855044869</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.121533040062839e-06</v>
+        <v>3.925391572078357e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.161458333333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>216996.3084948882</v>
+        <v>262278.4703967881</v>
       </c>
     </row>
     <row r="12">
@@ -4462,28 +4462,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>175.0858453595426</v>
+        <v>211.6727367091277</v>
       </c>
       <c r="AB12" t="n">
-        <v>239.5601778631649</v>
+        <v>289.6199767073709</v>
       </c>
       <c r="AC12" t="n">
-        <v>216.6968907127951</v>
+        <v>261.979052614695</v>
       </c>
       <c r="AD12" t="n">
-        <v>175085.8453595426</v>
+        <v>211672.7367091277</v>
       </c>
       <c r="AE12" t="n">
-        <v>239560.1778631649</v>
+        <v>289619.976707371</v>
       </c>
       <c r="AF12" t="n">
-        <v>2.120716087268808e-06</v>
+        <v>3.923879995519372e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>7.16796875</v>
       </c>
       <c r="AH12" t="n">
-        <v>216696.8907127951</v>
+        <v>261979.052614695</v>
       </c>
     </row>
   </sheetData>
@@ -4759,28 +4759,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>248.4781578077795</v>
+        <v>307.2967184713688</v>
       </c>
       <c r="AB2" t="n">
-        <v>339.9787775951021</v>
+        <v>420.4569271869435</v>
       </c>
       <c r="AC2" t="n">
-        <v>307.5316802247381</v>
+        <v>380.3291081712245</v>
       </c>
       <c r="AD2" t="n">
-        <v>248478.1578077795</v>
+        <v>307296.7184713688</v>
       </c>
       <c r="AE2" t="n">
-        <v>339978.7775951021</v>
+        <v>420456.9271869435</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.628365084252455e-06</v>
+        <v>3.103915160074472e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.654947916666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>307531.6802247381</v>
+        <v>380329.1081712245</v>
       </c>
     </row>
     <row r="3">
@@ -4865,28 +4865,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>201.9077108812437</v>
+        <v>248.8773080660914</v>
       </c>
       <c r="AB3" t="n">
-        <v>276.2590375671318</v>
+        <v>340.5249125877908</v>
       </c>
       <c r="AC3" t="n">
-        <v>249.8932627538001</v>
+        <v>308.02569286023</v>
       </c>
       <c r="AD3" t="n">
-        <v>201907.7108812437</v>
+        <v>248877.3080660914</v>
       </c>
       <c r="AE3" t="n">
-        <v>276259.0375671317</v>
+        <v>340524.9125877907</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.9587128565089e-06</v>
+        <v>3.733608997359328e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.02734375</v>
       </c>
       <c r="AH3" t="n">
-        <v>249893.2627538001</v>
+        <v>308025.69286023</v>
       </c>
     </row>
     <row r="4">
@@ -4971,28 +4971,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>179.4192404190631</v>
+        <v>226.4740889499314</v>
       </c>
       <c r="AB4" t="n">
-        <v>245.4893201594953</v>
+        <v>309.8718398328036</v>
       </c>
       <c r="AC4" t="n">
-        <v>222.0601639899691</v>
+        <v>280.2981063471112</v>
       </c>
       <c r="AD4" t="n">
-        <v>179419.2404190631</v>
+        <v>226474.0889499314</v>
       </c>
       <c r="AE4" t="n">
-        <v>245489.3201594953</v>
+        <v>309871.8398328036</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.084346908043895e-06</v>
+        <v>3.973086888989552e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.5390625</v>
       </c>
       <c r="AH4" t="n">
-        <v>222060.1639899691</v>
+        <v>280298.1063471112</v>
       </c>
     </row>
     <row r="5">
@@ -5077,28 +5077,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>174.4488677678505</v>
+        <v>221.3331240981267</v>
       </c>
       <c r="AB5" t="n">
-        <v>238.6886370207442</v>
+        <v>302.8377449192055</v>
       </c>
       <c r="AC5" t="n">
-        <v>215.9085285051595</v>
+        <v>273.9353355796506</v>
       </c>
       <c r="AD5" t="n">
-        <v>174448.8677678505</v>
+        <v>221333.1240981267</v>
       </c>
       <c r="AE5" t="n">
-        <v>238688.6370207442</v>
+        <v>302837.7449192056</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.136334244764028e-06</v>
+        <v>4.072182776108499e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.356770833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>215908.5285051595</v>
+        <v>273935.3355796506</v>
       </c>
     </row>
     <row r="6">
@@ -5183,28 +5183,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>169.6340354939632</v>
+        <v>204.9252614006655</v>
       </c>
       <c r="AB6" t="n">
-        <v>232.1007710882064</v>
+        <v>280.387783312736</v>
       </c>
       <c r="AC6" t="n">
-        <v>209.9493992510931</v>
+        <v>253.6279668001763</v>
       </c>
       <c r="AD6" t="n">
-        <v>169634.0354939632</v>
+        <v>204925.2614006655</v>
       </c>
       <c r="AE6" t="n">
-        <v>232100.7710882064</v>
+        <v>280387.783312736</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.182188379660233e-06</v>
+        <v>4.159587833999292e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.20703125</v>
       </c>
       <c r="AH6" t="n">
-        <v>209949.3992510931</v>
+        <v>253627.9668001763</v>
       </c>
     </row>
     <row r="7">
@@ -5289,28 +5289,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>165.5717103181837</v>
+        <v>200.862936224886</v>
       </c>
       <c r="AB7" t="n">
-        <v>226.5425185655695</v>
+        <v>274.8295307900991</v>
       </c>
       <c r="AC7" t="n">
-        <v>204.9216185481584</v>
+        <v>248.6001860972416</v>
       </c>
       <c r="AD7" t="n">
-        <v>165571.7103181837</v>
+        <v>200862.936224886</v>
       </c>
       <c r="AE7" t="n">
-        <v>226542.5185655695</v>
+        <v>274829.5307900991</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.21522074223949e-06</v>
+        <v>4.222552615039104e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.096354166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>204921.6185481584</v>
+        <v>248600.1860972416</v>
       </c>
     </row>
     <row r="8">
@@ -5395,28 +5395,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>162.1094725644008</v>
+        <v>197.400698471103</v>
       </c>
       <c r="AB8" t="n">
-        <v>221.8053321276963</v>
+        <v>270.092344352226</v>
       </c>
       <c r="AC8" t="n">
-        <v>200.6365425352315</v>
+        <v>244.3151100843147</v>
       </c>
       <c r="AD8" t="n">
-        <v>162109.4725644008</v>
+        <v>197400.698471103</v>
       </c>
       <c r="AE8" t="n">
-        <v>221805.3321276963</v>
+        <v>270092.3443522259</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.23550377189342e-06</v>
+        <v>4.261215199888113e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.03125</v>
       </c>
       <c r="AH8" t="n">
-        <v>200636.5425352315</v>
+        <v>244315.1100843147</v>
       </c>
     </row>
     <row r="9">
@@ -5501,28 +5501,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>162.1774961575217</v>
+        <v>197.468722064224</v>
       </c>
       <c r="AB9" t="n">
-        <v>221.8984050087935</v>
+        <v>270.1854172333231</v>
       </c>
       <c r="AC9" t="n">
-        <v>200.7207326711854</v>
+        <v>244.3993002202686</v>
       </c>
       <c r="AD9" t="n">
-        <v>162177.4961575217</v>
+        <v>197468.722064224</v>
       </c>
       <c r="AE9" t="n">
-        <v>221898.4050087935</v>
+        <v>270185.4172333231</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.234393034555228e-06</v>
+        <v>4.259097963098762e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.037760416666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>200720.7326711854</v>
+        <v>244399.3002202686</v>
       </c>
     </row>
   </sheetData>
@@ -5798,28 +5798,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>144.7244130399879</v>
+        <v>186.5781830047509</v>
       </c>
       <c r="AB2" t="n">
-        <v>198.0183267117108</v>
+        <v>255.2845012354851</v>
       </c>
       <c r="AC2" t="n">
-        <v>179.1197355308683</v>
+        <v>230.9205067316926</v>
       </c>
       <c r="AD2" t="n">
-        <v>144724.4130399879</v>
+        <v>186578.1830047509</v>
       </c>
       <c r="AE2" t="n">
-        <v>198018.3267117108</v>
+        <v>255284.5012354851</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.301524076262312e-06</v>
+        <v>4.901643966834677e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.623697916666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>179119.7355308683</v>
+        <v>230920.5067316926</v>
       </c>
     </row>
     <row r="3">
@@ -5904,28 +5904,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>120.8736447970253</v>
+        <v>162.6420739072167</v>
       </c>
       <c r="AB3" t="n">
-        <v>165.3846533800729</v>
+        <v>222.5340607816496</v>
       </c>
       <c r="AC3" t="n">
-        <v>149.6005741803434</v>
+        <v>201.2957223492289</v>
       </c>
       <c r="AD3" t="n">
-        <v>120873.6447970253</v>
+        <v>162642.0739072167</v>
       </c>
       <c r="AE3" t="n">
-        <v>165384.6533800729</v>
+        <v>222534.0607816496</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.529873934564599e-06</v>
+        <v>5.387969405190591e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.93359375</v>
       </c>
       <c r="AH3" t="n">
-        <v>149600.5741803434</v>
+        <v>201295.7223492289</v>
       </c>
     </row>
     <row r="4">
@@ -6010,28 +6010,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>120.4861943352918</v>
+        <v>162.2546234454832</v>
       </c>
       <c r="AB4" t="n">
-        <v>164.8545265652215</v>
+        <v>222.0039339667982</v>
       </c>
       <c r="AC4" t="n">
-        <v>149.1210419246635</v>
+        <v>200.816190093549</v>
       </c>
       <c r="AD4" t="n">
-        <v>120486.1943352918</v>
+        <v>162254.6234454832</v>
       </c>
       <c r="AE4" t="n">
-        <v>164854.5265652215</v>
+        <v>222003.9339667982</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.540139574212171e-06</v>
+        <v>5.409832531091901e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.907552083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>149121.0419246635</v>
+        <v>200816.190093549</v>
       </c>
     </row>
   </sheetData>
@@ -6307,28 +6307,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>181.34238373574</v>
+        <v>225.1443165745202</v>
       </c>
       <c r="AB2" t="n">
-        <v>248.1206496884666</v>
+        <v>308.0523866033501</v>
       </c>
       <c r="AC2" t="n">
-        <v>224.4403631217904</v>
+        <v>278.6522991802576</v>
       </c>
       <c r="AD2" t="n">
-        <v>181342.38373574</v>
+        <v>225144.3165745203</v>
       </c>
       <c r="AE2" t="n">
-        <v>248120.6496884666</v>
+        <v>308052.3866033501</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.037625104197994e-06</v>
+        <v>4.137083433036253e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.235677083333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>224440.3631217904</v>
+        <v>278652.2991802576</v>
       </c>
     </row>
     <row r="3">
@@ -6413,28 +6413,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>152.1495026120742</v>
+        <v>195.8660945962828</v>
       </c>
       <c r="AB3" t="n">
-        <v>208.1776618360672</v>
+        <v>267.9926316287532</v>
       </c>
       <c r="AC3" t="n">
-        <v>188.3094779696758</v>
+        <v>242.4157909962042</v>
       </c>
       <c r="AD3" t="n">
-        <v>152149.5026120742</v>
+        <v>195866.0945962828</v>
       </c>
       <c r="AE3" t="n">
-        <v>208177.6618360672</v>
+        <v>267992.6316287532</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.305416213717449e-06</v>
+        <v>4.680791969226177e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.278645833333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>188309.4779696758</v>
+        <v>242415.7909962042</v>
       </c>
     </row>
     <row r="4">
@@ -6519,28 +6519,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>145.3568609669631</v>
+        <v>178.2723386141147</v>
       </c>
       <c r="AB4" t="n">
-        <v>198.8836698670311</v>
+        <v>243.9200785122291</v>
       </c>
       <c r="AC4" t="n">
-        <v>179.9024915499619</v>
+        <v>220.640688563073</v>
       </c>
       <c r="AD4" t="n">
-        <v>145356.8609669631</v>
+        <v>178272.3386141147</v>
       </c>
       <c r="AE4" t="n">
-        <v>198883.6698670311</v>
+        <v>243920.0785122291</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.390272151010552e-06</v>
+        <v>4.853078859315429e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.018229166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>179902.4915499619</v>
+        <v>220640.688563073</v>
       </c>
     </row>
     <row r="5">
@@ -6625,28 +6625,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>131.2948081544758</v>
+        <v>175.096651484705</v>
       </c>
       <c r="AB5" t="n">
-        <v>179.6433488350094</v>
+        <v>239.5749632803446</v>
       </c>
       <c r="AC5" t="n">
-        <v>162.49843975327</v>
+        <v>216.7102650305107</v>
       </c>
       <c r="AD5" t="n">
-        <v>131294.8081544758</v>
+        <v>175096.651484705</v>
       </c>
       <c r="AE5" t="n">
-        <v>179643.3488350094</v>
+        <v>239574.9632803446</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.421023406536272e-06</v>
+        <v>4.915514539715332e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.93359375</v>
       </c>
       <c r="AH5" t="n">
-        <v>162498.43975327</v>
+        <v>216710.2650305107</v>
       </c>
     </row>
   </sheetData>
@@ -6922,28 +6922,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>125.988286282672</v>
+        <v>156.1278406822031</v>
       </c>
       <c r="AB2" t="n">
-        <v>172.3827315027886</v>
+        <v>213.6209994955036</v>
       </c>
       <c r="AC2" t="n">
-        <v>155.9307655488936</v>
+        <v>193.2333111226696</v>
       </c>
       <c r="AD2" t="n">
-        <v>125988.286282672</v>
+        <v>156127.8406822031</v>
       </c>
       <c r="AE2" t="n">
-        <v>172382.7315027886</v>
+        <v>213620.9994955036</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.534609565872356e-06</v>
+        <v>5.644080433014716e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.1875</v>
       </c>
       <c r="AH2" t="n">
-        <v>155930.7655488936</v>
+        <v>193233.3111226696</v>
       </c>
     </row>
     <row r="3">
@@ -7028,28 +7028,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>112.1732433132482</v>
+        <v>152.27385564665</v>
       </c>
       <c r="AB3" t="n">
-        <v>153.4803802353512</v>
+        <v>208.3478071440424</v>
       </c>
       <c r="AC3" t="n">
-        <v>138.8324281567978</v>
+        <v>188.4633848482583</v>
       </c>
       <c r="AD3" t="n">
-        <v>112173.2433132482</v>
+        <v>152273.85564665</v>
       </c>
       <c r="AE3" t="n">
-        <v>153480.3802353512</v>
+        <v>208347.8071440424</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.611620281028644e-06</v>
+        <v>5.815568253623676e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.979166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>138832.4281567978</v>
+        <v>188463.3848482583</v>
       </c>
     </row>
   </sheetData>
@@ -7325,28 +7325,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>258.7529946391937</v>
+        <v>329.8456948956015</v>
       </c>
       <c r="AB2" t="n">
-        <v>354.0372626418125</v>
+        <v>451.3094315212097</v>
       </c>
       <c r="AC2" t="n">
-        <v>320.248443189696</v>
+        <v>408.2370927935901</v>
       </c>
       <c r="AD2" t="n">
-        <v>258752.9946391937</v>
+        <v>329845.6948956015</v>
       </c>
       <c r="AE2" t="n">
-        <v>354037.2626418125</v>
+        <v>451309.4315212097</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.570592604603118e-06</v>
+        <v>2.969619434991274e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.921875</v>
       </c>
       <c r="AH2" t="n">
-        <v>320248.443189696</v>
+        <v>408237.0927935901</v>
       </c>
     </row>
     <row r="3">
@@ -7431,28 +7431,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>207.7791355740231</v>
+        <v>255.2028055383693</v>
       </c>
       <c r="AB3" t="n">
-        <v>284.2925798607646</v>
+        <v>349.1797372906103</v>
       </c>
       <c r="AC3" t="n">
-        <v>257.1600950460786</v>
+        <v>315.854513240538</v>
       </c>
       <c r="AD3" t="n">
-        <v>207779.1355740231</v>
+        <v>255202.8055383693</v>
       </c>
       <c r="AE3" t="n">
-        <v>284292.5798607646</v>
+        <v>349179.7372906103</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.91627899833345e-06</v>
+        <v>3.623230708993833e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.131510416666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>257160.0950460786</v>
+        <v>315854.513240538</v>
       </c>
     </row>
     <row r="4">
@@ -7537,28 +7537,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>184.9265835289836</v>
+        <v>232.4355048393503</v>
       </c>
       <c r="AB4" t="n">
-        <v>253.024709969315</v>
+        <v>318.02851205181</v>
       </c>
       <c r="AC4" t="n">
-        <v>228.8763867723281</v>
+        <v>287.6763172174997</v>
       </c>
       <c r="AD4" t="n">
-        <v>184926.5835289836</v>
+        <v>232435.5048393503</v>
       </c>
       <c r="AE4" t="n">
-        <v>253024.709969315</v>
+        <v>318028.51205181</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.040329826597194e-06</v>
+        <v>3.85778150813749e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.63671875</v>
       </c>
       <c r="AH4" t="n">
-        <v>228876.3867723281</v>
+        <v>287676.3172174997</v>
       </c>
     </row>
     <row r="5">
@@ -7643,28 +7643,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>177.6459761402978</v>
+        <v>224.9843052500723</v>
       </c>
       <c r="AB5" t="n">
-        <v>243.0630617423911</v>
+        <v>307.8334520500392</v>
       </c>
       <c r="AC5" t="n">
-        <v>219.8654642709175</v>
+        <v>278.454259433438</v>
       </c>
       <c r="AD5" t="n">
-        <v>177645.9761402978</v>
+        <v>224984.3052500723</v>
       </c>
       <c r="AE5" t="n">
-        <v>243063.0617423911</v>
+        <v>307833.4520500392</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.118124819399168e-06</v>
+        <v>4.004873454128236e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.356770833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>219865.4642709175</v>
+        <v>278454.259433438</v>
       </c>
     </row>
     <row r="6">
@@ -7749,28 +7749,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>173.9701146231494</v>
+        <v>209.6018951144755</v>
       </c>
       <c r="AB6" t="n">
-        <v>238.0335858470663</v>
+        <v>286.7865598784858</v>
       </c>
       <c r="AC6" t="n">
-        <v>215.3159944961271</v>
+        <v>259.4160531112324</v>
       </c>
       <c r="AD6" t="n">
-        <v>173970.1146231494</v>
+        <v>209601.8951144755</v>
       </c>
       <c r="AE6" t="n">
-        <v>238033.5858470663</v>
+        <v>286786.5598784859</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.150262215687402e-06</v>
+        <v>4.065637675434164e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.24609375</v>
       </c>
       <c r="AH6" t="n">
-        <v>215315.9944961271</v>
+        <v>259416.0531112324</v>
       </c>
     </row>
     <row r="7">
@@ -7855,28 +7855,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>170.9426335499429</v>
+        <v>206.574414041269</v>
       </c>
       <c r="AB7" t="n">
-        <v>233.8912526796687</v>
+        <v>282.6442267110883</v>
       </c>
       <c r="AC7" t="n">
-        <v>211.5689997924236</v>
+        <v>255.6690584075288</v>
       </c>
       <c r="AD7" t="n">
-        <v>170942.6335499429</v>
+        <v>206574.414041269</v>
       </c>
       <c r="AE7" t="n">
-        <v>233891.2526796687</v>
+        <v>282644.2267110883</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.170482692130856e-06</v>
+        <v>4.103869817655689e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.174479166666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>211568.9997924236</v>
+        <v>255669.0584075288</v>
       </c>
     </row>
     <row r="8">
@@ -7961,28 +7961,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>167.5293819513232</v>
+        <v>203.1611624426493</v>
       </c>
       <c r="AB8" t="n">
-        <v>229.2210912604066</v>
+        <v>277.9740652918263</v>
       </c>
       <c r="AC8" t="n">
-        <v>207.3445520244016</v>
+        <v>251.4446106395069</v>
       </c>
       <c r="AD8" t="n">
-        <v>167529.3819513232</v>
+        <v>203161.1624426493</v>
       </c>
       <c r="AE8" t="n">
-        <v>229221.0912604066</v>
+        <v>277974.0652918263</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.191971435144136e-06</v>
+        <v>4.144499952229571e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.109375</v>
       </c>
       <c r="AH8" t="n">
-        <v>207344.5520244016</v>
+        <v>251444.6106395069</v>
       </c>
     </row>
     <row r="9">
@@ -8067,28 +8067,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>165.4746627329752</v>
+        <v>201.1064432243013</v>
       </c>
       <c r="AB9" t="n">
-        <v>226.40973377805</v>
+        <v>275.1627078094696</v>
       </c>
       <c r="AC9" t="n">
-        <v>204.8015065543952</v>
+        <v>248.9015651695004</v>
       </c>
       <c r="AD9" t="n">
-        <v>165474.6627329752</v>
+        <v>201106.4432243013</v>
       </c>
       <c r="AE9" t="n">
-        <v>226409.73377805</v>
+        <v>275162.7078094696</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.199293879868037e-06</v>
+        <v>4.158344964679024e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="AH9" t="n">
-        <v>204801.5065543952</v>
+        <v>248901.5651695004</v>
       </c>
     </row>
     <row r="10">
@@ -8173,28 +8173,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>165.7389244925383</v>
+        <v>201.3707049838644</v>
       </c>
       <c r="AB10" t="n">
-        <v>226.7713083758901</v>
+        <v>275.5242824073097</v>
       </c>
       <c r="AC10" t="n">
-        <v>205.1285729800907</v>
+        <v>249.2286315951959</v>
       </c>
       <c r="AD10" t="n">
-        <v>165738.9244925383</v>
+        <v>201370.7049838644</v>
       </c>
       <c r="AE10" t="n">
-        <v>226771.3083758901</v>
+        <v>275524.2824073097</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.199174232078431e-06</v>
+        <v>4.158118738985405e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>205128.5729800907</v>
+        <v>249228.6315951959</v>
       </c>
     </row>
   </sheetData>
@@ -8470,28 +8470,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>116.9099537623351</v>
+        <v>146.3088102252821</v>
       </c>
       <c r="AB2" t="n">
-        <v>159.9613564407055</v>
+        <v>200.1861688392998</v>
       </c>
       <c r="AC2" t="n">
-        <v>144.6948690892224</v>
+        <v>181.0806818483864</v>
       </c>
       <c r="AD2" t="n">
-        <v>116909.9537623351</v>
+        <v>146308.8102252821</v>
       </c>
       <c r="AE2" t="n">
-        <v>159961.3564407055</v>
+        <v>200186.1688392998</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.645593276670633e-06</v>
+        <v>6.065199175315108e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.044270833333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>144694.8690892224</v>
+        <v>181080.6818483864</v>
       </c>
     </row>
     <row r="3">
@@ -8576,28 +8576,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>117.2709547826667</v>
+        <v>146.6698112456137</v>
       </c>
       <c r="AB3" t="n">
-        <v>160.4552939629639</v>
+        <v>200.6801063615582</v>
       </c>
       <c r="AC3" t="n">
-        <v>145.1416659076023</v>
+        <v>181.5274786667663</v>
       </c>
       <c r="AD3" t="n">
-        <v>117270.9547826667</v>
+        <v>146669.8112456137</v>
       </c>
       <c r="AE3" t="n">
-        <v>160455.2939629639</v>
+        <v>200680.1063615582</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.645049157509152e-06</v>
+        <v>6.063951745818448e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.05078125</v>
       </c>
       <c r="AH3" t="n">
-        <v>145141.6659076023</v>
+        <v>181527.4786667663</v>
       </c>
     </row>
   </sheetData>
@@ -8873,28 +8873,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>207.6399766747784</v>
+        <v>264.5310891534943</v>
       </c>
       <c r="AB2" t="n">
-        <v>284.1021765155607</v>
+        <v>361.9431064678178</v>
       </c>
       <c r="AC2" t="n">
-        <v>256.9878635289082</v>
+        <v>327.3997643768689</v>
       </c>
       <c r="AD2" t="n">
-        <v>207639.9766747784</v>
+        <v>264531.0891534943</v>
       </c>
       <c r="AE2" t="n">
-        <v>284102.1765155607</v>
+        <v>361943.1064678178</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.819651552266539e-06</v>
+        <v>3.566491894977732e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.899739583333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>256987.8635289082</v>
+        <v>327399.7643768688</v>
       </c>
     </row>
     <row r="3">
@@ -8979,28 +8979,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>171.4880840494808</v>
+        <v>217.0692467161082</v>
       </c>
       <c r="AB3" t="n">
-        <v>234.6375621167138</v>
+        <v>297.0037197761368</v>
       </c>
       <c r="AC3" t="n">
-        <v>212.2440825042492</v>
+        <v>268.6581016081287</v>
       </c>
       <c r="AD3" t="n">
-        <v>171488.0840494808</v>
+        <v>217069.2467161082</v>
       </c>
       <c r="AE3" t="n">
-        <v>234637.5621167138</v>
+        <v>297003.7197761368</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.117296013332916e-06</v>
+        <v>4.149870925240968e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.649739583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>212244.0825042492</v>
+        <v>268658.1016081287</v>
       </c>
     </row>
     <row r="4">
@@ -9085,28 +9085,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>162.9473002867556</v>
+        <v>208.3578707527908</v>
       </c>
       <c r="AB4" t="n">
-        <v>222.9516849797721</v>
+        <v>285.0844308643483</v>
       </c>
       <c r="AC4" t="n">
-        <v>201.6734890800219</v>
+        <v>257.8763729012504</v>
       </c>
       <c r="AD4" t="n">
-        <v>162947.3002867556</v>
+        <v>208357.8707527908</v>
       </c>
       <c r="AE4" t="n">
-        <v>222951.6849797721</v>
+        <v>285084.4308643483</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.226735831473252e-06</v>
+        <v>4.364371456344945e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.272135416666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>201673.4890800219</v>
+        <v>257876.3729012504</v>
       </c>
     </row>
     <row r="5">
@@ -9191,28 +9191,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>157.7813697411542</v>
+        <v>191.9673312496758</v>
       </c>
       <c r="AB5" t="n">
-        <v>215.8834309025129</v>
+        <v>262.6581716166285</v>
       </c>
       <c r="AC5" t="n">
-        <v>195.2798192515371</v>
+        <v>237.5904443606733</v>
       </c>
       <c r="AD5" t="n">
-        <v>157781.3697411542</v>
+        <v>191967.3312496758</v>
       </c>
       <c r="AE5" t="n">
-        <v>215883.4309025129</v>
+        <v>262658.1716166285</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.281070126271728e-06</v>
+        <v>4.47086592325358e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.102864583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>195279.8192515371</v>
+        <v>237590.4443606733</v>
       </c>
     </row>
     <row r="6">
@@ -9297,28 +9297,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>141.0973981500493</v>
+        <v>186.5932199621051</v>
       </c>
       <c r="AB6" t="n">
-        <v>193.0556849266955</v>
+        <v>255.3050754639209</v>
       </c>
       <c r="AC6" t="n">
-        <v>174.6307213127018</v>
+        <v>230.9391173846425</v>
       </c>
       <c r="AD6" t="n">
-        <v>141097.3981500493</v>
+        <v>186593.2199621051</v>
       </c>
       <c r="AE6" t="n">
-        <v>193055.6849266955</v>
+        <v>255305.0754639209</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.32351257449801e-06</v>
+        <v>4.554052535225251e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.97265625</v>
       </c>
       <c r="AH6" t="n">
-        <v>174630.7213127018</v>
+        <v>230939.1173846425</v>
       </c>
     </row>
     <row r="7">
@@ -9403,28 +9403,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>141.3449111962304</v>
+        <v>186.8407330082861</v>
       </c>
       <c r="AB7" t="n">
-        <v>193.3943431959851</v>
+        <v>255.6437337332105</v>
       </c>
       <c r="AC7" t="n">
-        <v>174.9370585120804</v>
+        <v>231.2454545840211</v>
       </c>
       <c r="AD7" t="n">
-        <v>141344.9111962304</v>
+        <v>186840.7330082861</v>
       </c>
       <c r="AE7" t="n">
-        <v>193394.3431959851</v>
+        <v>255643.7337332105</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.319532040080539e-06</v>
+        <v>4.546250742777732e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.985677083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>174937.0585120804</v>
+        <v>231245.4545840211</v>
       </c>
     </row>
   </sheetData>
@@ -9700,28 +9700,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>238.2908197759562</v>
+        <v>296.3496139053899</v>
       </c>
       <c r="AB2" t="n">
-        <v>326.0400122663339</v>
+        <v>405.4786157676028</v>
       </c>
       <c r="AC2" t="n">
-        <v>294.9232110957631</v>
+        <v>366.7803057715535</v>
       </c>
       <c r="AD2" t="n">
-        <v>238290.8197759562</v>
+        <v>296349.6139053899</v>
       </c>
       <c r="AE2" t="n">
-        <v>326040.0122663339</v>
+        <v>405478.6157676028</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.689609742413881e-06</v>
+        <v>3.248617857828665e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.39453125</v>
       </c>
       <c r="AH2" t="n">
-        <v>294923.2110957631</v>
+        <v>366780.3057715535</v>
       </c>
     </row>
     <row r="3">
@@ -9806,28 +9806,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>183.8281695322191</v>
+        <v>230.4116785962368</v>
       </c>
       <c r="AB3" t="n">
-        <v>251.5218114803371</v>
+        <v>315.2594237010709</v>
       </c>
       <c r="AC3" t="n">
-        <v>227.5169228058064</v>
+        <v>285.1715067725144</v>
       </c>
       <c r="AD3" t="n">
-        <v>183828.1695322191</v>
+        <v>230411.6785962368</v>
       </c>
       <c r="AE3" t="n">
-        <v>251521.8114803371</v>
+        <v>315259.4237010709</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.010688001478666e-06</v>
+        <v>3.865956015851015e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.890625</v>
       </c>
       <c r="AH3" t="n">
-        <v>227516.9228058064</v>
+        <v>285171.5067725144</v>
       </c>
     </row>
     <row r="4">
@@ -9912,28 +9912,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>174.038515204182</v>
+        <v>220.4514320676075</v>
       </c>
       <c r="AB4" t="n">
-        <v>238.1271745396557</v>
+        <v>301.6313749855427</v>
       </c>
       <c r="AC4" t="n">
-        <v>215.4006512152484</v>
+        <v>272.8440998993053</v>
       </c>
       <c r="AD4" t="n">
-        <v>174038.515204182</v>
+        <v>220451.4320676075</v>
       </c>
       <c r="AE4" t="n">
-        <v>238127.1745396557</v>
+        <v>301631.3749855427</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.129398229359437e-06</v>
+        <v>4.094200536771821e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.454427083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>215400.6512152484</v>
+        <v>272844.0998993053</v>
       </c>
     </row>
     <row r="5">
@@ -10018,28 +10018,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>168.879405660528</v>
+        <v>215.2923225239535</v>
       </c>
       <c r="AB5" t="n">
-        <v>231.0682532581822</v>
+        <v>294.5724537040692</v>
       </c>
       <c r="AC5" t="n">
-        <v>209.0154234736182</v>
+        <v>266.4588721576751</v>
       </c>
       <c r="AD5" t="n">
-        <v>168879.405660528</v>
+        <v>215292.3225239535</v>
       </c>
       <c r="AE5" t="n">
-        <v>231068.2532581822</v>
+        <v>294572.4537040693</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.183293160333643e-06</v>
+        <v>4.197824486619028e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.265625</v>
       </c>
       <c r="AH5" t="n">
-        <v>209015.4234736182</v>
+        <v>266458.8721576751</v>
       </c>
     </row>
     <row r="6">
@@ -10124,28 +10124,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>164.1793258887925</v>
+        <v>199.1170471953568</v>
       </c>
       <c r="AB6" t="n">
-        <v>224.6373967616116</v>
+        <v>272.4407283967105</v>
       </c>
       <c r="AC6" t="n">
-        <v>203.1983188953145</v>
+        <v>246.4393676515721</v>
       </c>
       <c r="AD6" t="n">
-        <v>164179.3258887925</v>
+        <v>199117.0471953568</v>
       </c>
       <c r="AE6" t="n">
-        <v>224637.3967616116</v>
+        <v>272440.7283967105</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.227462140399343e-06</v>
+        <v>4.282748320686482e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.122395833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>203198.3188953145</v>
+        <v>246439.3676515721</v>
       </c>
     </row>
     <row r="7">
@@ -10230,28 +10230,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>159.39661550731</v>
+        <v>194.3343368138743</v>
       </c>
       <c r="AB7" t="n">
-        <v>218.0934814193801</v>
+        <v>265.8968130544789</v>
       </c>
       <c r="AC7" t="n">
-        <v>197.2789456489006</v>
+        <v>240.5199944051581</v>
       </c>
       <c r="AD7" t="n">
-        <v>159396.61550731</v>
+        <v>194334.3368138743</v>
       </c>
       <c r="AE7" t="n">
-        <v>218093.4814193801</v>
+        <v>265896.8130544788</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.263538349283026e-06</v>
+        <v>4.352112158666521e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.01171875</v>
       </c>
       <c r="AH7" t="n">
-        <v>197278.9456489006</v>
+        <v>240519.9944051582</v>
       </c>
     </row>
     <row r="8">
@@ -10336,28 +10336,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>159.3229405389316</v>
+        <v>194.2606618454959</v>
       </c>
       <c r="AB8" t="n">
-        <v>217.9926760773346</v>
+        <v>265.7960077124334</v>
       </c>
       <c r="AC8" t="n">
-        <v>197.1877610272187</v>
+        <v>240.4288097834762</v>
       </c>
       <c r="AD8" t="n">
-        <v>159322.9405389316</v>
+        <v>194260.6618454959</v>
       </c>
       <c r="AE8" t="n">
-        <v>217992.6760773346</v>
+        <v>265796.0077124334</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.254933685947931e-06</v>
+        <v>4.33556794595912e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.037760416666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>197187.7610272187</v>
+        <v>240428.8097834762</v>
       </c>
     </row>
   </sheetData>
@@ -10633,28 +10633,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>292.8307732417487</v>
+        <v>353.2097990925759</v>
       </c>
       <c r="AB2" t="n">
-        <v>400.6639827313152</v>
+        <v>483.2772296350404</v>
       </c>
       <c r="AC2" t="n">
-        <v>362.4251745548693</v>
+        <v>437.1539291225233</v>
       </c>
       <c r="AD2" t="n">
-        <v>292830.7732417487</v>
+        <v>353209.7990925759</v>
       </c>
       <c r="AE2" t="n">
-        <v>400663.9827313152</v>
+        <v>483277.2296350405</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.461824459155059e-06</v>
+        <v>2.723268093247786e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.48177083333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>362425.1745548693</v>
+        <v>437153.9291225233</v>
       </c>
     </row>
     <row r="3">
@@ -10739,28 +10739,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>221.5704393293056</v>
+        <v>269.856609740766</v>
       </c>
       <c r="AB3" t="n">
-        <v>303.1624500881135</v>
+        <v>369.2297186807096</v>
       </c>
       <c r="AC3" t="n">
-        <v>274.2290513429646</v>
+        <v>333.9909525469868</v>
       </c>
       <c r="AD3" t="n">
-        <v>221570.4393293056</v>
+        <v>269856.609740766</v>
       </c>
       <c r="AE3" t="n">
-        <v>303162.4500881135</v>
+        <v>369229.7186807096</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.815992967366114e-06</v>
+        <v>3.383057161630058e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.4375</v>
       </c>
       <c r="AH3" t="n">
-        <v>274229.0513429646</v>
+        <v>333990.9525469868</v>
       </c>
     </row>
     <row r="4">
@@ -10845,28 +10845,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>195.4503705551085</v>
+        <v>243.821792312586</v>
       </c>
       <c r="AB4" t="n">
-        <v>267.4238196551685</v>
+        <v>333.607732900234</v>
       </c>
       <c r="AC4" t="n">
-        <v>241.9012656390456</v>
+        <v>301.7686790937288</v>
       </c>
       <c r="AD4" t="n">
-        <v>195450.3705551085</v>
+        <v>243821.792312586</v>
       </c>
       <c r="AE4" t="n">
-        <v>267423.8196551685</v>
+        <v>333607.732900234</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.957961530346617e-06</v>
+        <v>3.647533826654879e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.825520833333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>241901.2656390456</v>
+        <v>301768.6790937288</v>
       </c>
     </row>
     <row r="5">
@@ -10951,28 +10951,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>188.8633794354318</v>
+        <v>237.2348011929094</v>
       </c>
       <c r="AB5" t="n">
-        <v>258.4112078076925</v>
+        <v>324.5951210527581</v>
       </c>
       <c r="AC5" t="n">
-        <v>233.7488048170097</v>
+        <v>293.616218271693</v>
       </c>
       <c r="AD5" t="n">
-        <v>188863.3794354318</v>
+        <v>237234.8011929094</v>
       </c>
       <c r="AE5" t="n">
-        <v>258411.2078076925</v>
+        <v>324595.1210527581</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.028192912596667e-06</v>
+        <v>3.778369564987509e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.552083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>233748.8048170097</v>
+        <v>293616.218271693</v>
       </c>
     </row>
     <row r="6">
@@ -11057,28 +11057,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>185.2139473620733</v>
+        <v>233.4147769189586</v>
       </c>
       <c r="AB6" t="n">
-        <v>253.4178938433458</v>
+        <v>319.3683953135645</v>
       </c>
       <c r="AC6" t="n">
-        <v>229.2320457292585</v>
+        <v>288.8883239012907</v>
       </c>
       <c r="AD6" t="n">
-        <v>185213.9473620733</v>
+        <v>233414.7769189586</v>
       </c>
       <c r="AE6" t="n">
-        <v>253417.8938433458</v>
+        <v>319368.3953135645</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.06332036777232e-06</v>
+        <v>3.843809349687884e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.421875</v>
       </c>
       <c r="AH6" t="n">
-        <v>229232.0457292585</v>
+        <v>288888.3239012907</v>
       </c>
     </row>
     <row r="7">
@@ -11163,28 +11163,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>181.3256009496389</v>
+        <v>229.5264305065242</v>
       </c>
       <c r="AB7" t="n">
-        <v>248.0976867401188</v>
+        <v>314.0481882103375</v>
       </c>
       <c r="AC7" t="n">
-        <v>224.4195917250042</v>
+        <v>284.0758698970363</v>
       </c>
       <c r="AD7" t="n">
-        <v>181325.6009496389</v>
+        <v>229526.4305065242</v>
       </c>
       <c r="AE7" t="n">
-        <v>248097.6867401188</v>
+        <v>314048.1882103375</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.095789147506012e-06</v>
+        <v>3.904296223690908e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.311197916666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>224419.5917250042</v>
+        <v>284075.8698970363</v>
       </c>
     </row>
     <row r="8">
@@ -11269,28 +11269,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>177.7659317846422</v>
+        <v>214.0445876113015</v>
       </c>
       <c r="AB8" t="n">
-        <v>243.2271903470526</v>
+        <v>292.8652477504002</v>
       </c>
       <c r="AC8" t="n">
-        <v>220.0139286719061</v>
+        <v>264.9145995441452</v>
       </c>
       <c r="AD8" t="n">
-        <v>177765.9317846422</v>
+        <v>214044.5876113015</v>
       </c>
       <c r="AE8" t="n">
-        <v>243227.1903470526</v>
+        <v>292865.2477504002</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.119011383445978e-06</v>
+        <v>3.947557487923506e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.2265625</v>
       </c>
       <c r="AH8" t="n">
-        <v>220013.9286719061</v>
+        <v>264914.5995441452</v>
       </c>
     </row>
     <row r="9">
@@ -11375,28 +11375,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>174.5400754457505</v>
+        <v>210.8187312724097</v>
       </c>
       <c r="AB9" t="n">
-        <v>238.8134313894456</v>
+        <v>288.4514887927931</v>
       </c>
       <c r="AC9" t="n">
-        <v>216.0214126744621</v>
+        <v>260.9220835467011</v>
       </c>
       <c r="AD9" t="n">
-        <v>174540.0754457505</v>
+        <v>210818.7312724097</v>
       </c>
       <c r="AE9" t="n">
-        <v>238813.4313894456</v>
+        <v>288451.4887927931</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.141457192044486e-06</v>
+        <v>3.989372326908207e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.154947916666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>216021.4126744621</v>
+        <v>260922.0835467011</v>
       </c>
     </row>
     <row r="10">
@@ -11481,28 +11481,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>171.907115897232</v>
+        <v>208.1857717238913</v>
       </c>
       <c r="AB10" t="n">
-        <v>235.2108999771872</v>
+        <v>284.8489573805347</v>
       </c>
       <c r="AC10" t="n">
-        <v>212.7627018040039</v>
+        <v>257.6633726762428</v>
       </c>
       <c r="AD10" t="n">
-        <v>171907.115897232</v>
+        <v>208185.7717238913</v>
       </c>
       <c r="AE10" t="n">
-        <v>235210.8999771872</v>
+        <v>284848.9573805347</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.152515399634946e-06</v>
+        <v>4.00997292892373e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.115885416666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>212762.7018040039</v>
+        <v>257663.3726762428</v>
       </c>
     </row>
     <row r="11">
@@ -11587,28 +11587,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>171.9068528274578</v>
+        <v>208.185508654117</v>
       </c>
       <c r="AB11" t="n">
-        <v>235.2105400335163</v>
+        <v>284.8485974368638</v>
       </c>
       <c r="AC11" t="n">
-        <v>212.7623762128517</v>
+        <v>257.6630470850907</v>
       </c>
       <c r="AD11" t="n">
-        <v>171906.8528274578</v>
+        <v>208185.508654117</v>
       </c>
       <c r="AE11" t="n">
-        <v>235210.5400335162</v>
+        <v>284848.5974368638</v>
       </c>
       <c r="AF11" t="n">
-        <v>2.1514095788759e-06</v>
+        <v>4.007912868722178e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>8</v>
+        <v>7.122395833333333</v>
       </c>
       <c r="AH11" t="n">
-        <v>212762.3762128517</v>
+        <v>257663.0470850907</v>
       </c>
     </row>
   </sheetData>
@@ -11884,28 +11884,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>189.9507806173623</v>
+        <v>234.3474632277773</v>
       </c>
       <c r="AB2" t="n">
-        <v>259.8990380775634</v>
+        <v>320.6445378685054</v>
       </c>
       <c r="AC2" t="n">
-        <v>235.0946386541075</v>
+        <v>290.0426732018657</v>
       </c>
       <c r="AD2" t="n">
-        <v>189950.7806173623</v>
+        <v>234347.4632277773</v>
       </c>
       <c r="AE2" t="n">
-        <v>259899.0380775635</v>
+        <v>320644.5378685055</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.96154669293072e-06</v>
+        <v>3.931915157618715e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.450520833333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>235094.6386541075</v>
+        <v>290042.6732018657</v>
       </c>
     </row>
     <row r="3">
@@ -11990,28 +11990,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>158.8253532547368</v>
+        <v>203.1366950105802</v>
       </c>
       <c r="AB3" t="n">
-        <v>217.311855203098</v>
+        <v>277.9405878718424</v>
       </c>
       <c r="AC3" t="n">
-        <v>196.5719167416809</v>
+        <v>251.4143282575004</v>
       </c>
       <c r="AD3" t="n">
-        <v>158825.3532547368</v>
+        <v>203136.6950105802</v>
       </c>
       <c r="AE3" t="n">
-        <v>217311.855203098</v>
+        <v>277940.5878718424</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.238942276538404e-06</v>
+        <v>4.487953871239113e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.40234375</v>
       </c>
       <c r="AH3" t="n">
-        <v>196571.9167416809</v>
+        <v>251414.3282575004</v>
       </c>
     </row>
     <row r="4">
@@ -12096,28 +12096,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>151.000959535998</v>
+        <v>184.3624995118757</v>
       </c>
       <c r="AB4" t="n">
-        <v>206.6061745292361</v>
+        <v>252.252905331478</v>
       </c>
       <c r="AC4" t="n">
-        <v>186.8879712058118</v>
+        <v>228.1782420858913</v>
       </c>
       <c r="AD4" t="n">
-        <v>151000.959535998</v>
+        <v>184362.4995118757</v>
       </c>
       <c r="AE4" t="n">
-        <v>206606.1745292361</v>
+        <v>252252.905331478</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.341902923968491e-06</v>
+        <v>4.69433821667814e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.076822916666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>186887.9712058118</v>
+        <v>228178.2420858913</v>
       </c>
     </row>
     <row r="5">
@@ -12202,28 +12202,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>134.9461118127567</v>
+        <v>179.3427049146206</v>
       </c>
       <c r="AB5" t="n">
-        <v>184.6392235844154</v>
+        <v>245.3846009058091</v>
       </c>
       <c r="AC5" t="n">
-        <v>167.0175152283485</v>
+        <v>221.9654389948802</v>
       </c>
       <c r="AD5" t="n">
-        <v>134946.1118127567</v>
+        <v>179342.7049146206</v>
       </c>
       <c r="AE5" t="n">
-        <v>184639.2235844154</v>
+        <v>245384.6009058091</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.384868949397907e-06</v>
+        <v>4.780463501004736e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.946614583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>167017.5152283486</v>
+        <v>221965.4389948802</v>
       </c>
     </row>
     <row r="6">
@@ -12308,28 +12308,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>134.8457806503305</v>
+        <v>179.2423737521945</v>
       </c>
       <c r="AB6" t="n">
-        <v>184.5019460616855</v>
+        <v>245.2473233830791</v>
       </c>
       <c r="AC6" t="n">
-        <v>166.8933392797177</v>
+        <v>221.8412630462494</v>
       </c>
       <c r="AD6" t="n">
-        <v>134845.7806503305</v>
+        <v>179242.3737521945</v>
       </c>
       <c r="AE6" t="n">
-        <v>184501.9460616855</v>
+        <v>245247.3233830791</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.384181696621488e-06</v>
+        <v>4.779085904632212e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.953125</v>
       </c>
       <c r="AH6" t="n">
-        <v>166893.3392797177</v>
+        <v>221841.2630462494</v>
       </c>
     </row>
   </sheetData>
@@ -12605,28 +12605,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>153.12874122293</v>
+        <v>195.7097372504176</v>
       </c>
       <c r="AB2" t="n">
-        <v>209.5174993043979</v>
+        <v>267.7786966101412</v>
       </c>
       <c r="AC2" t="n">
-        <v>189.5214432305031</v>
+        <v>242.2222736355088</v>
       </c>
       <c r="AD2" t="n">
-        <v>153128.74122293</v>
+        <v>195709.7372504176</v>
       </c>
       <c r="AE2" t="n">
-        <v>209517.4993043979</v>
+        <v>267778.6966101412</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.210905645050959e-06</v>
+        <v>4.62535287488019e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.805989583333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>189521.4432305031</v>
+        <v>242222.2736355088</v>
       </c>
     </row>
     <row r="3">
@@ -12711,28 +12711,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>138.9097865128673</v>
+        <v>170.8456230420341</v>
       </c>
       <c r="AB3" t="n">
-        <v>190.0624981740905</v>
+        <v>233.7585186229464</v>
       </c>
       <c r="AC3" t="n">
-        <v>171.9232001028005</v>
+        <v>211.4489336877813</v>
       </c>
       <c r="AD3" t="n">
-        <v>138909.7865128673</v>
+        <v>170845.6230420341</v>
       </c>
       <c r="AE3" t="n">
-        <v>190062.4981740905</v>
+        <v>233758.5186229463</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.44603559960288e-06</v>
+        <v>5.117259444340376e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.057291666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>171923.2001028004</v>
+        <v>211448.9336877813</v>
       </c>
     </row>
     <row r="4">
@@ -12817,28 +12817,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>124.1136489764128</v>
+        <v>166.6093041493288</v>
       </c>
       <c r="AB4" t="n">
-        <v>169.8177700372049</v>
+        <v>227.9622002207506</v>
       </c>
       <c r="AC4" t="n">
-        <v>153.6106004056384</v>
+        <v>206.2058077787053</v>
       </c>
       <c r="AD4" t="n">
-        <v>124113.6489764128</v>
+        <v>166609.3041493288</v>
       </c>
       <c r="AE4" t="n">
-        <v>169817.7700372049</v>
+        <v>227962.2002207506</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.496466043170511e-06</v>
+        <v>5.222763086098751e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.9140625</v>
       </c>
       <c r="AH4" t="n">
-        <v>153610.6004056384</v>
+        <v>206205.8077787053</v>
       </c>
     </row>
   </sheetData>
@@ -23039,28 +23039,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>135.4980446319989</v>
+        <v>176.3889932429822</v>
       </c>
       <c r="AB2" t="n">
-        <v>185.3944024172598</v>
+        <v>241.3432022881131</v>
       </c>
       <c r="AC2" t="n">
-        <v>167.7006208532867</v>
+        <v>218.3097457891173</v>
       </c>
       <c r="AD2" t="n">
-        <v>135498.0446319989</v>
+        <v>176388.9932429822</v>
       </c>
       <c r="AE2" t="n">
-        <v>185394.4024172598</v>
+        <v>241343.2022881131</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.415442930970905e-06</v>
+        <v>5.25082455225098e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.395833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>167700.6208532867</v>
+        <v>218309.7457891173</v>
       </c>
     </row>
     <row r="3">
@@ -23145,28 +23145,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>116.5119385415846</v>
+        <v>157.4881384985884</v>
       </c>
       <c r="AB3" t="n">
-        <v>159.4167744564826</v>
+        <v>215.4822189799852</v>
       </c>
       <c r="AC3" t="n">
-        <v>144.202261245248</v>
+        <v>194.9168984317909</v>
       </c>
       <c r="AD3" t="n">
-        <v>116511.9385415846</v>
+        <v>157488.1384985884</v>
       </c>
       <c r="AE3" t="n">
-        <v>159416.7744564826</v>
+        <v>215482.2189799852</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.570493165329374e-06</v>
+        <v>5.58788139882879e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.946614583333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>144202.261245248</v>
+        <v>194916.8984317909</v>
       </c>
     </row>
   </sheetData>
@@ -23442,28 +23442,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>111.0530662025838</v>
+        <v>139.5902877342562</v>
       </c>
       <c r="AB2" t="n">
-        <v>151.9477044938148</v>
+        <v>190.9935899667894</v>
       </c>
       <c r="AC2" t="n">
-        <v>137.4460288369092</v>
+        <v>172.7654298016</v>
       </c>
       <c r="AD2" t="n">
-        <v>111053.0662025839</v>
+        <v>139590.2877342562</v>
       </c>
       <c r="AE2" t="n">
-        <v>151947.7044938148</v>
+        <v>190993.5899667894</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.659244323500965e-06</v>
+        <v>6.325084326042701e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.20703125</v>
       </c>
       <c r="AH2" t="n">
-        <v>137446.0288369092</v>
+        <v>172765.4298016001</v>
       </c>
     </row>
   </sheetData>
@@ -23739,28 +23739,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>228.6398907721149</v>
+        <v>274.7330054852831</v>
       </c>
       <c r="AB2" t="n">
-        <v>312.8351854343464</v>
+        <v>375.9018184697549</v>
       </c>
       <c r="AC2" t="n">
-        <v>282.9786344035255</v>
+        <v>340.0262764965165</v>
       </c>
       <c r="AD2" t="n">
-        <v>228639.8907721149</v>
+        <v>274733.005485283</v>
       </c>
       <c r="AE2" t="n">
-        <v>312835.1854343464</v>
+        <v>375901.8184697549</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.752760923967937e-06</v>
+        <v>3.401369630079846e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.147135416666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>282978.6344035254</v>
+        <v>340026.2764965165</v>
       </c>
     </row>
     <row r="3">
@@ -23845,28 +23845,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>177.9654004506968</v>
+        <v>224.0584256553105</v>
       </c>
       <c r="AB3" t="n">
-        <v>243.5001121758848</v>
+        <v>306.5666227415617</v>
       </c>
       <c r="AC3" t="n">
-        <v>220.2608032244428</v>
+        <v>277.3083345361551</v>
       </c>
       <c r="AD3" t="n">
-        <v>177965.4004506968</v>
+        <v>224058.4256553104</v>
       </c>
       <c r="AE3" t="n">
-        <v>243500.1121758848</v>
+        <v>306566.6227415617</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.057693809764227e-06</v>
+        <v>3.993115739191005e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.786458333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>220260.8032244428</v>
+        <v>277308.3345361551</v>
       </c>
     </row>
     <row r="4">
@@ -23951,28 +23951,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>168.5878405790953</v>
+        <v>214.5102735831168</v>
       </c>
       <c r="AB4" t="n">
-        <v>230.6693210508226</v>
+        <v>293.5024198416527</v>
       </c>
       <c r="AC4" t="n">
-        <v>208.6545647962241</v>
+        <v>265.4909608252854</v>
       </c>
       <c r="AD4" t="n">
-        <v>168587.8405790953</v>
+        <v>214510.2735831168</v>
       </c>
       <c r="AE4" t="n">
-        <v>230669.3210508226</v>
+        <v>293502.4198416527</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.177342915607111e-06</v>
+        <v>4.225304185039563e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.36328125</v>
       </c>
       <c r="AH4" t="n">
-        <v>208654.5647962241</v>
+        <v>265490.9608252854</v>
       </c>
     </row>
     <row r="5">
@@ -24057,28 +24057,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>163.4656499285228</v>
+        <v>198.0355083405341</v>
       </c>
       <c r="AB5" t="n">
-        <v>223.6609138276099</v>
+        <v>270.960919221416</v>
       </c>
       <c r="AC5" t="n">
-        <v>202.3150301220312</v>
+        <v>245.100789387042</v>
       </c>
       <c r="AD5" t="n">
-        <v>163465.6499285228</v>
+        <v>198035.5083405341</v>
       </c>
       <c r="AE5" t="n">
-        <v>223660.9138276099</v>
+        <v>270960.919221416</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.232637543533679e-06</v>
+        <v>4.332607734293855e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.180989583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>202315.0301220312</v>
+        <v>245100.789387042</v>
       </c>
     </row>
     <row r="6">
@@ -24163,28 +24163,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>158.4822101766368</v>
+        <v>193.0520685886481</v>
       </c>
       <c r="AB6" t="n">
-        <v>216.8423517052376</v>
+        <v>264.1423570990437</v>
       </c>
       <c r="AC6" t="n">
-        <v>196.1472219987039</v>
+        <v>238.9329812637147</v>
       </c>
       <c r="AD6" t="n">
-        <v>158482.2101766368</v>
+        <v>193052.0685886481</v>
       </c>
       <c r="AE6" t="n">
-        <v>216842.3517052376</v>
+        <v>264142.3570990437</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.275524116039503e-06</v>
+        <v>4.415832481756445e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.044270833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>196147.2219987039</v>
+        <v>238932.9812637147</v>
       </c>
     </row>
     <row r="7">
@@ -24269,28 +24269,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>143.6709583286892</v>
+        <v>189.6786426787313</v>
       </c>
       <c r="AB7" t="n">
-        <v>196.5769435005707</v>
+        <v>259.5266869440501</v>
       </c>
       <c r="AC7" t="n">
-        <v>177.815915910405</v>
+        <v>234.7578241901785</v>
       </c>
       <c r="AD7" t="n">
-        <v>143670.9583286892</v>
+        <v>189678.6426787312</v>
       </c>
       <c r="AE7" t="n">
-        <v>196576.9435005707</v>
+        <v>259526.6869440501</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.296745829874188e-06</v>
+        <v>4.457014876884317e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.979166666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>177815.915910405</v>
+        <v>234757.8241901785</v>
       </c>
     </row>
     <row r="8">
@@ -24375,28 +24375,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>144.0196431365179</v>
+        <v>190.0273274865599</v>
       </c>
       <c r="AB8" t="n">
-        <v>197.0540294375297</v>
+        <v>260.0037728810091</v>
       </c>
       <c r="AC8" t="n">
-        <v>178.2474694351351</v>
+        <v>235.1893777149085</v>
       </c>
       <c r="AD8" t="n">
-        <v>144019.6431365178</v>
+        <v>190027.3274865599</v>
       </c>
       <c r="AE8" t="n">
-        <v>197054.0294375297</v>
+        <v>260003.7728810091</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.29679506818935e-06</v>
+        <v>4.457110427685078e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.979166666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>178247.469435135</v>
+        <v>235189.3777149085</v>
       </c>
     </row>
   </sheetData>
@@ -24672,28 +24672,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>281.4589814014262</v>
+        <v>341.3078835760281</v>
       </c>
       <c r="AB2" t="n">
-        <v>385.1045954473374</v>
+        <v>466.9925037498451</v>
       </c>
       <c r="AC2" t="n">
-        <v>348.3507533555371</v>
+        <v>422.4233946200546</v>
       </c>
       <c r="AD2" t="n">
-        <v>281458.9814014263</v>
+        <v>341307.883576028</v>
       </c>
       <c r="AE2" t="n">
-        <v>385104.5954473374</v>
+        <v>466992.5037498451</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.515618921125376e-06</v>
+        <v>2.843895566095268e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.18880208333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>348350.7533555371</v>
+        <v>422423.3946200546</v>
       </c>
     </row>
     <row r="3">
@@ -24778,28 +24778,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>214.5819381358342</v>
+        <v>262.4440096063141</v>
       </c>
       <c r="AB3" t="n">
-        <v>293.6004744442976</v>
+        <v>359.0874721559147</v>
       </c>
       <c r="AC3" t="n">
-        <v>265.5796572342743</v>
+        <v>324.8166677957859</v>
       </c>
       <c r="AD3" t="n">
-        <v>214581.9381358342</v>
+        <v>262444.0096063141</v>
       </c>
       <c r="AE3" t="n">
-        <v>293600.4744442976</v>
+        <v>359087.4721559147</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.865568749030088e-06</v>
+        <v>3.500538703801045e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.28125</v>
       </c>
       <c r="AH3" t="n">
-        <v>265579.6572342743</v>
+        <v>324816.6677957859</v>
       </c>
     </row>
     <row r="4">
@@ -24884,28 +24884,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>190.338826201661</v>
+        <v>238.2861490181583</v>
       </c>
       <c r="AB4" t="n">
-        <v>260.4299791653637</v>
+        <v>326.0336215294555</v>
       </c>
       <c r="AC4" t="n">
-        <v>235.5749074696688</v>
+        <v>294.9174302818429</v>
       </c>
       <c r="AD4" t="n">
-        <v>190338.8262016611</v>
+        <v>238286.1490181583</v>
       </c>
       <c r="AE4" t="n">
-        <v>260429.9791653637</v>
+        <v>326033.6215294555</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.99771033546011e-06</v>
+        <v>3.74848814973835e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.734375</v>
       </c>
       <c r="AH4" t="n">
-        <v>235574.9074696688</v>
+        <v>294917.4302818429</v>
       </c>
     </row>
     <row r="5">
@@ -24990,28 +24990,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>182.7796629458026</v>
+        <v>230.5563935617076</v>
       </c>
       <c r="AB5" t="n">
-        <v>250.0871985119568</v>
+        <v>315.4574291012018</v>
       </c>
       <c r="AC5" t="n">
-        <v>226.219227285636</v>
+        <v>285.3506148151591</v>
       </c>
       <c r="AD5" t="n">
-        <v>182779.6629458026</v>
+        <v>230556.3935617076</v>
       </c>
       <c r="AE5" t="n">
-        <v>250087.1985119568</v>
+        <v>315457.4291012018</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.076734325477776e-06</v>
+        <v>3.896768150531377e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.434895833333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>226219.227285636</v>
+        <v>285350.6148151591</v>
       </c>
     </row>
     <row r="6">
@@ -25096,28 +25096,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>179.6896698198652</v>
+        <v>227.4664004357702</v>
       </c>
       <c r="AB6" t="n">
-        <v>245.8593335961758</v>
+        <v>311.2295641854208</v>
       </c>
       <c r="AC6" t="n">
-        <v>222.39486386357</v>
+        <v>281.5262513930932</v>
       </c>
       <c r="AD6" t="n">
-        <v>179689.6698198652</v>
+        <v>227466.4004357702</v>
       </c>
       <c r="AE6" t="n">
-        <v>245859.3335961758</v>
+        <v>311229.5641854207</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.106294184847939e-06</v>
+        <v>3.952234040951104e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>8</v>
+        <v>7.330729166666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>222394.86386357</v>
+        <v>281526.2513930931</v>
       </c>
     </row>
     <row r="7">
@@ -25202,28 +25202,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>175.7007450636809</v>
+        <v>211.6613266846049</v>
       </c>
       <c r="AB7" t="n">
-        <v>240.4015107658268</v>
+        <v>289.6043650084441</v>
       </c>
       <c r="AC7" t="n">
-        <v>217.4579279840453</v>
+        <v>261.9649308744025</v>
       </c>
       <c r="AD7" t="n">
-        <v>175700.7450636809</v>
+        <v>211661.3266846049</v>
       </c>
       <c r="AE7" t="n">
-        <v>240401.5107658268</v>
+        <v>289604.3650084441</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.139365167160946e-06</v>
+        <v>4.014288175176706e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>8</v>
+        <v>7.220052083333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>217457.9279840454</v>
+        <v>261964.9308744025</v>
       </c>
     </row>
     <row r="8">
@@ -25308,28 +25308,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>172.0434424270919</v>
+        <v>208.0040240480159</v>
       </c>
       <c r="AB8" t="n">
-        <v>235.3974279496434</v>
+        <v>284.6002821922607</v>
       </c>
       <c r="AC8" t="n">
-        <v>212.9314278085626</v>
+        <v>257.4384306989198</v>
       </c>
       <c r="AD8" t="n">
-        <v>172043.4424270919</v>
+        <v>208004.0240480159</v>
       </c>
       <c r="AE8" t="n">
-        <v>235397.4279496434</v>
+        <v>284600.2821922607</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.163492275491167e-06</v>
+        <v>4.059560093761669e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>8</v>
+        <v>7.141927083333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>212931.4278085626</v>
+        <v>257438.4306989198</v>
       </c>
     </row>
     <row r="9">
@@ -25414,28 +25414,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>169.9438363934044</v>
+        <v>205.9044180143283</v>
       </c>
       <c r="AB9" t="n">
-        <v>232.5246543462726</v>
+        <v>281.7275085888899</v>
       </c>
       <c r="AC9" t="n">
-        <v>210.3328276859336</v>
+        <v>254.8398305762907</v>
       </c>
       <c r="AD9" t="n">
-        <v>169943.8363934043</v>
+        <v>205904.4180143283</v>
       </c>
       <c r="AE9" t="n">
-        <v>232524.6543462726</v>
+        <v>281727.5085888899</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.17046707376952e-06</v>
+        <v>4.072647551051716e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>8</v>
+        <v>7.115885416666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>210332.8276859336</v>
+        <v>254839.8305762907</v>
       </c>
     </row>
     <row r="10">
@@ -25520,28 +25520,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>168.3368577517042</v>
+        <v>204.2974393726281</v>
       </c>
       <c r="AB10" t="n">
-        <v>230.3259152738054</v>
+        <v>279.5287695164226</v>
       </c>
       <c r="AC10" t="n">
-        <v>208.3439331845922</v>
+        <v>252.8509360749494</v>
       </c>
       <c r="AD10" t="n">
-        <v>168336.8577517042</v>
+        <v>204297.4393726281</v>
       </c>
       <c r="AE10" t="n">
-        <v>230325.9152738054</v>
+        <v>279528.7695164226</v>
       </c>
       <c r="AF10" t="n">
-        <v>2.180763204561374e-06</v>
+        <v>4.091967130860834e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>8</v>
+        <v>7.083333333333333</v>
       </c>
       <c r="AH10" t="n">
-        <v>208343.9331845922</v>
+        <v>252850.9360749494</v>
       </c>
     </row>
   </sheetData>
@@ -25817,28 +25817,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>103.7680022470415</v>
+        <v>140.4087740999746</v>
       </c>
       <c r="AB2" t="n">
-        <v>141.9799585955079</v>
+        <v>192.1134791214347</v>
       </c>
       <c r="AC2" t="n">
-        <v>128.4295906173143</v>
+        <v>173.7784383071007</v>
       </c>
       <c r="AD2" t="n">
-        <v>103768.0022470415</v>
+        <v>140408.7740999746</v>
       </c>
       <c r="AE2" t="n">
-        <v>141979.9585955079</v>
+        <v>192113.4791214347</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.613001619353239e-06</v>
+        <v>6.534918750533317e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.59765625</v>
       </c>
       <c r="AH2" t="n">
-        <v>128429.5906173144</v>
+        <v>173778.4383071007</v>
       </c>
     </row>
   </sheetData>
@@ -26114,28 +26114,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>172.6954346692197</v>
+        <v>215.8659712205701</v>
       </c>
       <c r="AB2" t="n">
-        <v>236.2895124991898</v>
+        <v>295.3573451583742</v>
       </c>
       <c r="AC2" t="n">
-        <v>213.7383730607491</v>
+        <v>267.1688546731835</v>
       </c>
       <c r="AD2" t="n">
-        <v>172695.4346692197</v>
+        <v>215865.9712205702</v>
       </c>
       <c r="AE2" t="n">
-        <v>236289.5124991898</v>
+        <v>295357.3451583742</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.119160382431958e-06</v>
+        <v>4.363951920643616e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.02734375</v>
       </c>
       <c r="AH2" t="n">
-        <v>213738.3730607491</v>
+        <v>267168.8546731835</v>
       </c>
     </row>
     <row r="3">
@@ -26220,28 +26220,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>145.8803494889867</v>
+        <v>178.3222799205661</v>
       </c>
       <c r="AB3" t="n">
-        <v>199.5999299575472</v>
+        <v>243.9884104109708</v>
       </c>
       <c r="AC3" t="n">
-        <v>180.5503927827167</v>
+        <v>220.7024989613033</v>
       </c>
       <c r="AD3" t="n">
-        <v>145880.3494889867</v>
+        <v>178322.2799205661</v>
       </c>
       <c r="AE3" t="n">
-        <v>199599.9299575472</v>
+        <v>243988.4104109708</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.372627714104593e-06</v>
+        <v>4.885913003930679e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.16796875</v>
       </c>
       <c r="AH3" t="n">
-        <v>180550.3927827167</v>
+        <v>220702.4989613033</v>
       </c>
     </row>
     <row r="4">
@@ -26326,28 +26326,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>128.1714598570786</v>
+        <v>171.3419068998781</v>
       </c>
       <c r="AB4" t="n">
-        <v>175.3698459021107</v>
+        <v>234.4375560917468</v>
       </c>
       <c r="AC4" t="n">
-        <v>158.6327939423868</v>
+        <v>212.0631647735947</v>
       </c>
       <c r="AD4" t="n">
-        <v>128171.4598570786</v>
+        <v>171341.9068998781</v>
       </c>
       <c r="AE4" t="n">
-        <v>175369.8459021107</v>
+        <v>234437.5560917468</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.451272871133212e-06</v>
+        <v>5.047865674860898e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.940104166666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>158632.7939423868</v>
+        <v>212063.1647735947</v>
       </c>
     </row>
     <row r="5">
@@ -26432,28 +26432,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>128.0489351184554</v>
+        <v>171.2193821612549</v>
       </c>
       <c r="AB5" t="n">
-        <v>175.2022021493166</v>
+        <v>234.2699123389526</v>
       </c>
       <c r="AC5" t="n">
-        <v>158.4811498740698</v>
+        <v>211.9115207052777</v>
       </c>
       <c r="AD5" t="n">
-        <v>128048.9351184554</v>
+        <v>171219.3821612549</v>
       </c>
       <c r="AE5" t="n">
-        <v>175202.2021493166</v>
+        <v>234269.9123389526</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.461802438668938e-06</v>
+        <v>5.069549039108366e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.907552083333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>158481.1498740698</v>
+        <v>211911.5207052777</v>
       </c>
     </row>
   </sheetData>
@@ -26729,28 +26729,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>198.7694390891925</v>
+        <v>254.9906348784879</v>
       </c>
       <c r="AB2" t="n">
-        <v>271.9651156504693</v>
+        <v>348.8894360334518</v>
       </c>
       <c r="AC2" t="n">
-        <v>246.0091467183054</v>
+        <v>315.5919179279223</v>
       </c>
       <c r="AD2" t="n">
-        <v>198769.4390891925</v>
+        <v>254990.6348784879</v>
       </c>
       <c r="AE2" t="n">
-        <v>271965.1156504693</v>
+        <v>348889.4360334518</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.888357247548687e-06</v>
+        <v>3.74118337621341e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.671875</v>
       </c>
       <c r="AH2" t="n">
-        <v>246009.1467183054</v>
+        <v>315591.9179279223</v>
       </c>
     </row>
     <row r="3">
@@ -26835,28 +26835,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>165.148589776084</v>
+        <v>210.1938190911776</v>
       </c>
       <c r="AB3" t="n">
-        <v>225.9635863731081</v>
+        <v>287.5964563772522</v>
       </c>
       <c r="AC3" t="n">
-        <v>204.397938831609</v>
+        <v>260.1486542248535</v>
       </c>
       <c r="AD3" t="n">
-        <v>165148.589776084</v>
+        <v>210193.8190911776</v>
       </c>
       <c r="AE3" t="n">
-        <v>225963.5863731081</v>
+        <v>287596.4563772522</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.176464612385101e-06</v>
+        <v>4.311977109914932e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.526041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>204397.938831609</v>
+        <v>260148.6542248536</v>
       </c>
     </row>
     <row r="4">
@@ -26941,28 +26941,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>156.4232289909471</v>
+        <v>190.2072404858184</v>
       </c>
       <c r="AB4" t="n">
-        <v>214.0251628111394</v>
+        <v>260.2499377837958</v>
       </c>
       <c r="AC4" t="n">
-        <v>193.5989016587081</v>
+        <v>235.4120489848681</v>
       </c>
       <c r="AD4" t="n">
-        <v>156423.2289909471</v>
+        <v>190207.2404858184</v>
       </c>
       <c r="AE4" t="n">
-        <v>214025.1628111394</v>
+        <v>260249.9377837958</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.29313639777856e-06</v>
+        <v>4.543125397429789e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.141927083333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>193598.9016587081</v>
+        <v>235412.048984868</v>
       </c>
     </row>
     <row r="5">
@@ -27047,28 +27047,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>151.9298537925983</v>
+        <v>185.7138652874695</v>
       </c>
       <c r="AB5" t="n">
-        <v>207.8771286310384</v>
+        <v>254.1019036036948</v>
       </c>
       <c r="AC5" t="n">
-        <v>188.0376272319338</v>
+        <v>229.8507745580938</v>
       </c>
       <c r="AD5" t="n">
-        <v>151929.8537925983</v>
+        <v>185713.8652874695</v>
       </c>
       <c r="AE5" t="n">
-        <v>207877.1286310384</v>
+        <v>254101.9036036948</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.331976681661161e-06</v>
+        <v>4.620075150755132e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>8</v>
+        <v>7.024739583333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>188037.6272319338</v>
+        <v>229850.7745580938</v>
       </c>
     </row>
     <row r="6">
@@ -27153,28 +27153,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>137.9559894542812</v>
+        <v>182.9158779148032</v>
       </c>
       <c r="AB6" t="n">
-        <v>188.7574709599772</v>
+        <v>250.2735738419237</v>
       </c>
       <c r="AC6" t="n">
-        <v>170.7427228543845</v>
+        <v>226.3878152156903</v>
       </c>
       <c r="AD6" t="n">
-        <v>137955.9894542812</v>
+        <v>182915.8779148032</v>
       </c>
       <c r="AE6" t="n">
-        <v>188757.4709599772</v>
+        <v>250273.5738419237</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.349962953018712e-06</v>
+        <v>4.655709265798928e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.966145833333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>170742.7228543845</v>
+        <v>226387.8152156903</v>
       </c>
     </row>
   </sheetData>
